--- a/Excelfile.xlsx
+++ b/Excelfile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\DevOps Projects\Git\excel-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FDD160-85D9-4ED6-9BFB-053810286B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3B7D02-FAEC-4A70-9D5B-BD322FECFCAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6015" yWindow="1965" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>a1</t>
   </si>
@@ -34,6 +34,15 @@
   </si>
   <si>
     <t>a3</t>
+  </si>
+  <si>
+    <t>b1</t>
+  </si>
+  <si>
+    <t>b2</t>
+  </si>
+  <si>
+    <t>b3</t>
   </si>
 </sst>
 </file>
@@ -351,27 +360,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Excelfile.xlsx
+++ b/Excelfile.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\DevOps Projects\Git\excel-project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\projects\excel-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3B7D02-FAEC-4A70-9D5B-BD322FECFCAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96629ABD-68F8-4BB0-B6D1-F8E4F25DA112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6015" yWindow="1965" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>a1</t>
   </si>
@@ -43,6 +43,15 @@
   </si>
   <si>
     <t>b3</t>
+  </si>
+  <si>
+    <t>c1</t>
+  </si>
+  <si>
+    <t>c2</t>
+  </si>
+  <si>
+    <t>c3</t>
   </si>
 </sst>
 </file>
@@ -360,36 +369,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
